--- a/c103.xlsx
+++ b/c103.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamakota/Desktop/CM-Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A1E102-3A55-7A43-9303-9393CC9EA0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F2BDA-E8EC-E347-A5E1-8D513522FCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15720" xr2:uid="{D05A54F1-CF91-F340-BD57-A2899DD6A700}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="15720" xr2:uid="{D05A54F1-CF91-F340-BD57-A2899DD6A700}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
